--- a/tbl_profil.xlsx
+++ b/tbl_profil.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Nama Ormawa</t>
   </si>
@@ -45,6 +45,21 @@
   </si>
   <si>
     <t>bemsvipb@gmail.com</t>
+  </si>
+  <si>
+    <t>Dewan Perwakilan Mahasiswa (DPM)</t>
+  </si>
+  <si>
+    <t>salah satu lembaga kemahasiswaan yang menempati struktur tertinggi dalam sistem kelembagaan Keluarga Mahasiswa/Fakultas</t>
+  </si>
+  <si>
+    <t>Bergerak Bersama Wujudkan Cita</t>
+  </si>
+  <si>
+    <t>Kampus Gnung Gede SV IPB</t>
+  </si>
+  <si>
+    <t>dpmsvipb@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -383,7 +398,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,6 +438,23 @@
       </c>
       <c r="E2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/tbl_profil.xlsx
+++ b/tbl_profil.xlsx
@@ -38,7 +38,7 @@
     <t>Badan Eksekutif Mahasiswa adalah lembaga yang berperan penting dalam seluruh arahan kegiatan kemahasiswaan.</t>
   </si>
   <si>
-    <t>Visi“BEM sebagai Lentera Pergerakan melalui fungsi Pelayanan dan Pengabdian yang Berkarya Bersama Membangun Makna untuk FEM IPB”.</t>
+    <t xml:space="preserve">Visi“BEM sebagai Lentera Pergerakan melalui fungsi Pelayanan dan Pengabdian yang Berkarya Bersama Membangun Makna untuk FEM IPB”. </t>
   </si>
   <si>
     <t>Kampus Gunung Gede Kota Bogor Jawa Barat</t>
